--- a/Python/Automation/Excel/data/2/B_Write.xlsx
+++ b/Python/Automation/Excel/data/2/B_Write.xlsx
@@ -50,7 +50,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -58,27 +58,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,6 +444,9 @@
       <c r="A1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
       <c r="C1" t="n">
         <v>2</v>
       </c>
@@ -1354,6 +1343,9 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Allen</t>
@@ -2246,6 +2238,9 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
@@ -3133,6 +3128,9 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" t="n">
         <v>5</v>
       </c>
@@ -4020,6 +4018,9 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>

--- a/Python/Automation/Excel/data/2/B_Write.xlsx
+++ b/Python/Automation/Excel/data/2/B_Write.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,8 +31,14 @@
       <color rgb="0099CCFF"/>
       <sz val="24"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <i val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -49,8 +55,23 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill type="linear">
+        <stop position="0">
+          <color rgb="0083EAF1"/>
+        </stop>
+        <stop position="1">
+          <color rgb="0063A4FF"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -58,18 +79,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FFFF00"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FFFF00"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FFFF00"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FFFF00"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="highlight1" xfId="1" hidden="0"/>
+    <cellStyle name="highlight2" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1354,7 +1409,7 @@
       <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
@@ -2244,10 +2299,10 @@
       <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>7</v>
       </c>
       <c r="I3" t="n">
@@ -3137,10 +3192,10 @@
       <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2" t="n">
         <v>8</v>
       </c>
       <c r="J4" t="n">
@@ -4030,7 +4085,7 @@
       <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="3" t="n">
         <v>8</v>
       </c>
       <c r="J5" t="n">

--- a/Python/Automation/Excel/data/2/B_Write.xlsx
+++ b/Python/Automation/Excel/data/2/B_Write.xlsx
@@ -35,7 +35,7 @@
       <b val="1"/>
     </font>
     <font>
-      <i val="1"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="5">
@@ -63,10 +63,10 @@
     <fill>
       <gradientFill type="linear">
         <stop position="0">
-          <color rgb="0083EAF1"/>
+          <color rgb="0063A4FF"/>
         </stop>
         <stop position="1">
-          <color rgb="0063A4FF"/>
+          <color rgb="0083EAF1"/>
         </stop>
       </gradientFill>
     </fill>
@@ -80,6 +80,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="00FFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="00FFFF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="00FFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00FFFF00"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="00FFFF00"/>
       </left>
@@ -91,20 +105,6 @@
       </top>
       <bottom style="thick">
         <color rgb="00FFFF00"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
       </bottom>
     </border>
   </borders>
@@ -1409,7 +1409,7 @@
       <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
@@ -2299,16 +2299,16 @@
       <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="2" t="n">
         <v>6</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>9</v>
       </c>
       <c r="K3" t="n">
@@ -3189,16 +3189,16 @@
       <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>6</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="3" t="n">
         <v>9</v>
       </c>
       <c r="K4" t="n">
@@ -4085,7 +4085,7 @@
       <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" t="n">
         <v>8</v>
       </c>
       <c r="J5" t="n">

--- a/Python/Automation/Excel/data/2/B_Write.xlsx
+++ b/Python/Automation/Excel/data/2/B_Write.xlsx
@@ -29,12 +29,14 @@
       <name val="Calibri"/>
       <b val="1"/>
       <color rgb="0099CCFF"/>
-      <sz val="24"/>
+      <sz val="28"/>
     </font>
     <font>
       <b val="1"/>
     </font>
     <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <u val="single"/>
     </font>
   </fonts>
@@ -63,10 +65,10 @@
     <fill>
       <gradientFill type="linear">
         <stop position="0">
-          <color rgb="0063A4FF"/>
+          <color rgb="00333252"/>
         </stop>
         <stop position="1">
-          <color rgb="0083EAF1"/>
+          <color rgb="00030712"/>
         </stop>
       </gradientFill>
     </fill>
@@ -95,16 +97,16 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="00FFFF00"/>
+        <color rgb="00000000"/>
       </left>
       <right style="thick">
-        <color rgb="00FFFF00"/>
+        <color rgb="00000000"/>
       </right>
       <top style="thick">
-        <color rgb="00FFFF00"/>
+        <color rgb="00000000"/>
       </top>
       <bottom style="thick">
-        <color rgb="00FFFF00"/>
+        <color rgb="00000000"/>
       </bottom>
     </border>
   </borders>
@@ -1406,13 +1408,10 @@
           <t>Allen</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>7</v>
       </c>
       <c r="I2" t="n">
@@ -2296,19 +2295,16 @@
       <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" t="n">
         <v>7</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" t="n">
         <v>9</v>
       </c>
       <c r="K3" t="n">
@@ -3186,19 +3182,16 @@
       <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" t="n">
         <v>6</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" t="n">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="2" t="n">
         <v>9</v>
       </c>
       <c r="K4" t="n">
@@ -4076,22 +4069,19 @@
       <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
       <c r="G5" t="n">
         <v>6</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="3" t="n">
         <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="2" t="n">
         <v>10</v>
       </c>
       <c r="L5" t="n">
@@ -4966,21 +4956,6 @@
       <c r="A6" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
       <c r="G6" t="n">
         <v>6</v>
       </c>
@@ -4990,7 +4965,7 @@
       <c r="I6" t="n">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="3" t="n">
         <v>9</v>
       </c>
       <c r="K6" t="n">
@@ -5868,21 +5843,6 @@
       <c r="A7" t="n">
         <v>0</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
@@ -5895,7 +5855,7 @@
       <c r="J7" t="n">
         <v>9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="3" t="n">
         <v>10</v>
       </c>
       <c r="L7" t="n">
@@ -17592,7 +17552,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
